--- a/data_processed/20250814/BTCUSDVOLSURFACE_20250814.xlsx
+++ b/data_processed/20250814/BTCUSDVOLSURFACE_20250814.xlsx
@@ -889,7 +889,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7973,7 +7973,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8114,7 +8114,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8251,7 +8251,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8309,7 +8309,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8616,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -40662,7 +40662,7 @@
       </c>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -40745,7 +40745,7 @@
       </c>
       <c r="G1528" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250814/BTCUSDVOLSURFACE_20250814.xlsx
+++ b/data_processed/20250814/BTCUSDVOLSURFACE_20250814.xlsx
@@ -13759,7 +13759,7 @@
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19504,7 +19504,7 @@
       </c>
       <c r="G715" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19620,7 +19620,7 @@
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19649,7 +19649,7 @@
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
